--- a/data/trans_dic/P36$otros-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,91</t>
+          <t>1,85; 3,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,71</t>
+          <t>0,8; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,98</t>
+          <t>2,36; 4,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,2</t>
+          <t>1,66; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,66</t>
+          <t>0,55; 1,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,68</t>
+          <t>3,09; 5,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,23</t>
+          <t>2,0; 3,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,79</t>
+          <t>0,79; 1,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,0</t>
+          <t>3,12; 4,87</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,15</t>
+          <t>0,92; 2,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,51</t>
+          <t>0,58; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,97</t>
+          <t>3,23; 4,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,0</t>
+          <t>0,84; 1,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,5</t>
+          <t>0,56; 1,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,64</t>
+          <t>3,02; 4,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,8</t>
+          <t>1,01; 1,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,3</t>
+          <t>0,67; 1,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4,53</t>
+          <t>3,28; 4,57</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,55</t>
+          <t>0,49; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,65</t>
+          <t>0,2; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,12</t>
+          <t>3,0; 6,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,0</t>
+          <t>0,2; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,3</t>
+          <t>0,89; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,96</t>
+          <t>3,82; 8,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,85</t>
+          <t>0,52; 1,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,42</t>
+          <t>0,64; 2,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,89</t>
+          <t>4,06; 6,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,33</t>
+          <t>1,41; 2,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,49</t>
+          <t>0,71; 1,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,84</t>
+          <t>3,41; 4,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,13</t>
+          <t>1,23; 2,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,59</t>
+          <t>0,81; 1,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,88</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,05</t>
+          <t>1,45; 2,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,36</t>
+          <t>0,85; 1,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 4,63</t>
+          <t>3,67; 4,6</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, otros alimentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28814</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14650</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26202</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31137</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13802</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42160</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59950</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28453</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68362</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19039; 40709</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7788; 25756</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17792; 36626</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21850; 42819</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7306; 21784</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30742; 57306</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46780; 77802</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18297; 43345</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54396; 85063</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23584</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18337</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>84094</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21252</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16922</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>73757</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44836</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35259</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157851</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15597; 36245</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11277; 29574</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>67020; 102542</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13329; 31396</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9821; 27237</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60025; 92119</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33252; 59619</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25079; 49865</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>133164; 185463</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6959</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26612</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30532</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12630</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>57144</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2689; 13702</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>956; 8893</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16424; 37163</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>969; 8563</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4092; 18485</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20997; 45536</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5355; 19772</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6001; 22090</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44484; 75391</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>59356</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35946</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136908</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55531</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>40396</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>146449</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>114886</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>283357</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46143; 76136</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24072; 50936</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>115053; 164429</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41555; 70627</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28599; 54699</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>123917; 172781</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>96628; 138150</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59501; 96166</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>253154; 317761</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>